--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MASSACHUSETTS_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MASSACHUSETTS_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D399"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C5">
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -457,12 +457,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LOS CABOS</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C7">
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MULEGÉ</t>
+          <t>Mulegé</t>
         </is>
       </c>
       <c r="C8">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -501,12 +501,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CALKINÍ</t>
+          <t>Calkiní</t>
         </is>
       </c>
       <c r="C10">
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C11">
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -545,12 +545,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C13">
@@ -563,7 +563,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C14">
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C15">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C16">
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C17">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C18">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>Chapultenango</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>MITONTIC</t>
+          <t>Mitontic</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>OXCHUC</t>
+          <t>Oxchuc</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>PICHUCALCO</t>
+          <t>Pichucalco</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SABANILLA</t>
+          <t>Sabanilla</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,12 +1213,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,12 +1257,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,7 +1314,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C71">
@@ -1327,7 +1327,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C72">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C73">
@@ -1353,7 +1353,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C74">
@@ -1366,7 +1366,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C75">
@@ -1379,7 +1379,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C76">
@@ -1392,7 +1392,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C77">
@@ -1405,7 +1405,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C78">
@@ -1418,7 +1418,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C79">
@@ -1431,7 +1431,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C80">
@@ -1444,12 +1444,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C81">
@@ -1462,7 +1462,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C82">
@@ -1475,12 +1475,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C83">
@@ -1493,7 +1493,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>SAN JUAN DE GUADALUPE</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C84">
@@ -1506,7 +1506,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C85">
@@ -1519,12 +1519,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C86">
@@ -1537,7 +1537,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C87">
@@ -1550,7 +1550,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C88">
@@ -1563,7 +1563,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C89">
@@ -1576,7 +1576,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C90">
@@ -1589,7 +1589,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C91">
@@ -1602,7 +1602,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C92">
@@ -1615,7 +1615,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C93">
@@ -1628,7 +1628,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>JILOTZINGO</t>
+          <t>Jilotzingo</t>
         </is>
       </c>
       <c r="C94">
@@ -1641,7 +1641,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C95">
@@ -1654,7 +1654,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C96">
@@ -1667,7 +1667,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C97">
@@ -1680,7 +1680,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C98">
@@ -1693,7 +1693,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C99">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TEMOAYA</t>
+          <t>Temoaya</t>
         </is>
       </c>
       <c r="C101">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C103">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C104">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C105">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TONATICO</t>
+          <t>Tonatico</t>
         </is>
       </c>
       <c r="C106">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C107">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C108">
@@ -1823,12 +1823,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C109">
@@ -1841,7 +1841,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C110">
@@ -1854,7 +1854,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>CORONEO</t>
+          <t>Coroneo</t>
         </is>
       </c>
       <c r="C111">
@@ -1867,7 +1867,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C112">
@@ -1880,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C114">
@@ -1906,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C115">
@@ -1919,7 +1919,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C116">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C117">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C118">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C119">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>XICHÚ</t>
+          <t>Xichú</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C121">
@@ -1997,12 +1997,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C122">
@@ -2015,7 +2015,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C123">
@@ -2028,7 +2028,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C124">
@@ -2041,7 +2041,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C125">
@@ -2054,7 +2054,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C126">
@@ -2067,7 +2067,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C127">
@@ -2080,7 +2080,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C128">
@@ -2093,7 +2093,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C129">
@@ -2106,7 +2106,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C130">
@@ -2119,7 +2119,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C131">
@@ -2132,7 +2132,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C132">
@@ -2145,7 +2145,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C133">
@@ -2158,7 +2158,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>MARQUELIA</t>
+          <t>Marquelia</t>
         </is>
       </c>
       <c r="C134">
@@ -2171,7 +2171,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C135">
@@ -2184,7 +2184,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C136">
@@ -2197,7 +2197,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C137">
@@ -2210,7 +2210,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C138">
@@ -2223,7 +2223,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C139">
@@ -2236,7 +2236,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C140">
@@ -2249,7 +2249,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C141">
@@ -2262,7 +2262,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C142">
@@ -2275,7 +2275,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C143">
@@ -2288,7 +2288,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C144">
@@ -2301,7 +2301,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C145">
@@ -2314,7 +2314,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C146">
@@ -2327,7 +2327,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C147">
@@ -2340,7 +2340,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>ZITLALA</t>
+          <t>Zitlala</t>
         </is>
       </c>
       <c r="C148">
@@ -2353,7 +2353,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C149">
@@ -2366,12 +2366,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C150">
@@ -2384,7 +2384,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C151">
@@ -2397,7 +2397,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>ATOTONILCO DE TULA</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C152">
@@ -2410,7 +2410,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C153">
@@ -2423,7 +2423,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C154">
@@ -2436,7 +2436,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C155">
@@ -2449,7 +2449,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C156">
@@ -2462,7 +2462,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLAXIACA</t>
+          <t>San Agustín Tlaxiaca</t>
         </is>
       </c>
       <c r="C157">
@@ -2475,7 +2475,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C158">
@@ -2488,7 +2488,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C159">
@@ -2501,7 +2501,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C160">
@@ -2514,7 +2514,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C161">
@@ -2527,7 +2527,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C162">
@@ -2540,12 +2540,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C163">
@@ -2558,7 +2558,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C164">
@@ -2571,7 +2571,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C165">
@@ -2584,7 +2584,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C166">
@@ -2597,7 +2597,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>EL SALTO</t>
+          <t>El Salto</t>
         </is>
       </c>
       <c r="C167">
@@ -2610,7 +2610,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C168">
@@ -2623,7 +2623,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C169">
@@ -2636,7 +2636,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DE LOS MEMBRILLOS</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C170">
@@ -2649,7 +2649,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C171">
@@ -2662,7 +2662,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C172">
@@ -2675,7 +2675,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>LA MANZANILLA DE LA PAZ</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C173">
@@ -2688,7 +2688,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C174">
@@ -2701,7 +2701,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C175">
@@ -2714,7 +2714,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C176">
@@ -2727,7 +2727,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C177">
@@ -2740,7 +2740,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C178">
@@ -2753,7 +2753,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C179">
@@ -2766,7 +2766,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C180">
@@ -2779,7 +2779,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C181">
@@ -2792,7 +2792,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TEUCHITLÁN</t>
+          <t>Teuchitlán</t>
         </is>
       </c>
       <c r="C182">
@@ -2805,7 +2805,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C183">
@@ -2818,7 +2818,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C184">
@@ -2831,7 +2831,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>TUXCACUESCO</t>
+          <t>Tuxcacuesco</t>
         </is>
       </c>
       <c r="C185">
@@ -2844,7 +2844,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>TUXCUECA</t>
+          <t>Tuxcueca</t>
         </is>
       </c>
       <c r="C186">
@@ -2857,7 +2857,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C187">
@@ -2870,7 +2870,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C188">
@@ -2883,7 +2883,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C189">
@@ -2896,7 +2896,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C190">
@@ -2909,12 +2909,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CHINICUILA</t>
+          <t>Chinicuila</t>
         </is>
       </c>
       <c r="C191">
@@ -2927,7 +2927,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C192">
@@ -2940,7 +2940,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C193">
@@ -2953,7 +2953,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>HUANDACAREO</t>
+          <t>Huandacareo</t>
         </is>
       </c>
       <c r="C194">
@@ -2966,7 +2966,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C195">
@@ -2979,7 +2979,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C196">
@@ -2992,7 +2992,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C197">
@@ -3005,7 +3005,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>PAJACUARÁN</t>
+          <t>Pajacuarán</t>
         </is>
       </c>
       <c r="C198">
@@ -3018,7 +3018,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C199">
@@ -3031,7 +3031,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C200">
@@ -3044,7 +3044,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C201">
@@ -3057,7 +3057,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TOCUMBO</t>
+          <t>Tocumbo</t>
         </is>
       </c>
       <c r="C202">
@@ -3070,7 +3070,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C203">
@@ -3083,7 +3083,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C204">
@@ -3096,7 +3096,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C205">
@@ -3109,7 +3109,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C206">
@@ -3122,7 +3122,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>ZIRACUARETIRO</t>
+          <t>Ziracuaretiro</t>
         </is>
       </c>
       <c r="C207">
@@ -3135,7 +3135,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C208">
@@ -3148,12 +3148,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C209">
@@ -3166,7 +3166,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C210">
@@ -3179,7 +3179,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C211">
@@ -3192,7 +3192,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C212">
@@ -3205,7 +3205,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C213">
@@ -3218,12 +3218,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C214">
@@ -3236,7 +3236,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C215">
@@ -3249,12 +3249,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ANÁHUAC</t>
+          <t>Anáhuac</t>
         </is>
       </c>
       <c r="C216">
@@ -3267,7 +3267,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C217">
@@ -3280,7 +3280,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C218">
@@ -3293,12 +3293,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ASUNCIÓN IXTALTEPEC</t>
+          <t>Asunción Ixtaltepec</t>
         </is>
       </c>
       <c r="C219">
@@ -3311,7 +3311,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C220">
@@ -3324,7 +3324,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C221">
@@ -3337,7 +3337,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C222">
@@ -3350,7 +3350,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C223">
@@ -3363,7 +3363,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C224">
@@ -3376,7 +3376,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C225">
@@ -3389,7 +3389,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C226">
@@ -3402,7 +3402,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3415,7 +3415,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN YATARENI</t>
+          <t>San Agustín Yatareni</t>
         </is>
       </c>
       <c r="C228">
@@ -3428,7 +3428,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CABECERA NUEVA</t>
+          <t>San Andrés Cabecera Nueva</t>
         </is>
       </c>
       <c r="C229">
@@ -3441,7 +3441,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C230">
@@ -3454,7 +3454,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SAN ANTONIO HUITEPEC</t>
+          <t>San Antonio Huitepec</t>
         </is>
       </c>
       <c r="C231">
@@ -3467,7 +3467,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>SAN DIONISIO DEL MAR</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C232">
@@ -3480,7 +3480,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C233">
@@ -3493,7 +3493,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>SAN JUAN LALANA</t>
+          <t>San Juan Lalana</t>
         </is>
       </c>
       <c r="C234">
@@ -3506,7 +3506,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C235">
@@ -3519,7 +3519,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>SAN MARTÍN ZACATEPEC</t>
+          <t>San Martín Zacatepec</t>
         </is>
       </c>
       <c r="C236">
@@ -3532,7 +3532,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EJUTLA</t>
+          <t>San Miguel Ejutla</t>
         </is>
       </c>
       <c r="C237">
@@ -3545,7 +3545,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TULANCINGO</t>
+          <t>San Miguel Tulancingo</t>
         </is>
       </c>
       <c r="C238">
@@ -3558,7 +3558,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C239">
@@ -3571,7 +3571,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C240">
@@ -3584,7 +3584,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C241">
@@ -3597,7 +3597,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA DEL CAMINO</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C242">
@@ -3610,7 +3610,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>SANTA MARÍA APAZCO</t>
+          <t>Santa María Apazco</t>
         </is>
       </c>
       <c r="C243">
@@ -3623,7 +3623,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C244">
@@ -3636,7 +3636,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>SANTIAGO CHAZUMBA</t>
+          <t>Santiago Chazumba</t>
         </is>
       </c>
       <c r="C245">
@@ -3649,7 +3649,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C246">
@@ -3662,7 +3662,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C247">
@@ -3675,7 +3675,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C248">
@@ -3688,7 +3688,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TOMALTEPEC</t>
+          <t>Santo Domingo Tomaltepec</t>
         </is>
       </c>
       <c r="C249">
@@ -3701,7 +3701,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C250">
@@ -3714,7 +3714,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C251">
@@ -3727,7 +3727,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C252">
@@ -3740,7 +3740,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C253">
@@ -3753,7 +3753,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN LAGUNAS</t>
+          <t>Zapotitlán Lagunas</t>
         </is>
       </c>
       <c r="C254">
@@ -3766,7 +3766,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C255">
@@ -3779,12 +3779,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C256">
@@ -3797,7 +3797,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C257">
@@ -3810,7 +3810,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C258">
@@ -3823,7 +3823,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C259">
@@ -3836,7 +3836,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C260">
@@ -3849,7 +3849,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>CALTEPEC</t>
+          <t>Caltepec</t>
         </is>
       </c>
       <c r="C261">
@@ -3862,7 +3862,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C262">
@@ -3875,7 +3875,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C263">
@@ -3888,7 +3888,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C264">
@@ -3901,7 +3901,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>CHICONCUAUTLA</t>
+          <t>Chiconcuautla</t>
         </is>
       </c>
       <c r="C265">
@@ -3914,7 +3914,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C266">
@@ -3927,7 +3927,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C267">
@@ -3940,7 +3940,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>CHINANTLA</t>
+          <t>Chinantla</t>
         </is>
       </c>
       <c r="C268">
@@ -3953,7 +3953,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C269">
@@ -3966,7 +3966,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C270">
@@ -3979,7 +3979,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C271">
@@ -3992,7 +3992,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C272">
@@ -4005,7 +4005,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C273">
@@ -4018,7 +4018,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C274">
@@ -4031,7 +4031,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>IXCAQUIXTLA</t>
+          <t>Ixcaquixtla</t>
         </is>
       </c>
       <c r="C275">
@@ -4044,7 +4044,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C276">
@@ -4057,7 +4057,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C277">
@@ -4070,7 +4070,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>JUAN N. MÉNDEZ</t>
+          <t>Juan N. Méndez</t>
         </is>
       </c>
       <c r="C278">
@@ -4083,7 +4083,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C279">
@@ -4096,7 +4096,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C280">
@@ -4109,7 +4109,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C281">
@@ -4122,7 +4122,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C282">
@@ -4135,7 +4135,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C283">
@@ -4148,7 +4148,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>SAN PABLO ANICANO</t>
+          <t>San Pablo Anicano</t>
         </is>
       </c>
       <c r="C284">
@@ -4161,7 +4161,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>SAN PEDRO YELOIXTLAHUACA</t>
+          <t>San Pedro Yeloixtlahuaca</t>
         </is>
       </c>
       <c r="C285">
@@ -4174,7 +4174,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C286">
@@ -4187,7 +4187,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C287">
@@ -4200,7 +4200,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C288">
@@ -4213,7 +4213,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TEPEXCO</t>
+          <t>Tepexco</t>
         </is>
       </c>
       <c r="C289">
@@ -4226,7 +4226,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C290">
@@ -4239,7 +4239,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C291">
@@ -4252,7 +4252,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C292">
@@ -4265,7 +4265,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C293">
@@ -4278,7 +4278,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C294">
@@ -4291,7 +4291,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C295">
@@ -4304,7 +4304,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN</t>
+          <t>Zapotitlán</t>
         </is>
       </c>
       <c r="C296">
@@ -4317,7 +4317,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C297">
@@ -4330,12 +4330,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C298">
@@ -4348,7 +4348,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C299">
@@ -4361,7 +4361,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C300">
@@ -4374,7 +4374,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C301">
@@ -4387,7 +4387,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C302">
@@ -4400,12 +4400,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C303">
@@ -4418,7 +4418,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C304">
@@ -4431,12 +4431,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C305">
@@ -4449,7 +4449,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C306">
@@ -4462,7 +4462,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C307">
@@ -4475,7 +4475,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C308">
@@ -4488,7 +4488,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C309">
@@ -4501,7 +4501,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C310">
@@ -4514,7 +4514,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>VANEGAS</t>
+          <t>Vanegas</t>
         </is>
       </c>
       <c r="C311">
@@ -4527,7 +4527,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>VILLA DE GUADALUPE</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C312">
@@ -4540,7 +4540,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>VILLA DE REYES</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C313">
@@ -4553,7 +4553,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C314">
@@ -4566,12 +4566,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C315">
@@ -4584,7 +4584,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C316">
@@ -4597,7 +4597,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C317">
@@ -4610,7 +4610,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C318">
@@ -4623,12 +4623,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C319">
@@ -4641,7 +4641,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C320">
@@ -4654,7 +4654,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C321">
@@ -4667,7 +4667,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>SAHUARIPA</t>
+          <t>Sahuaripa</t>
         </is>
       </c>
       <c r="C322">
@@ -4680,7 +4680,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C323">
@@ -4693,12 +4693,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C324">
@@ -4711,7 +4711,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C325">
@@ -4724,7 +4724,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C326">
@@ -4737,7 +4737,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>JALPA DE MÉNDEZ</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C327">
@@ -4750,7 +4750,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C328">
@@ -4763,12 +4763,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C329">
@@ -4781,7 +4781,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C330">
@@ -4794,7 +4794,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C331">
@@ -4807,7 +4807,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C332">
@@ -4820,7 +4820,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C333">
@@ -4833,7 +4833,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C334">
@@ -4846,7 +4846,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C335">
@@ -4859,12 +4859,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ACUAMANALA DE MIGUEL HIDALGO</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C336">
@@ -4877,7 +4877,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C337">
@@ -4890,7 +4890,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>EL CARMEN TEQUEXQUITLA</t>
+          <t>El Carmen Tequexquitla</t>
         </is>
       </c>
       <c r="C338">
@@ -4903,7 +4903,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>NATÍVITAS</t>
+          <t>Natívitas</t>
         </is>
       </c>
       <c r="C339">
@@ -4916,7 +4916,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>SANCTÓRUM DE LÁZARO CÁRDENAS</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C340">
@@ -4929,7 +4929,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C341">
@@ -4942,7 +4942,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C342">
@@ -4955,7 +4955,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C343">
@@ -4968,12 +4968,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C344">
@@ -4986,7 +4986,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C345">
@@ -4999,7 +4999,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C346">
@@ -5012,7 +5012,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>CAMARÓN DE TEJEDA</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C347">
@@ -5025,7 +5025,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C348">
@@ -5038,7 +5038,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>CHUMATLÁN</t>
+          <t>Chumatlán</t>
         </is>
       </c>
       <c r="C349">
@@ -5051,7 +5051,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C350">
@@ -5064,7 +5064,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C351">
@@ -5077,7 +5077,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C352">
@@ -5090,7 +5090,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C353">
@@ -5103,7 +5103,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C354">
@@ -5116,7 +5116,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C355">
@@ -5129,7 +5129,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C356">
@@ -5142,7 +5142,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C357">
@@ -5155,7 +5155,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C358">
@@ -5168,7 +5168,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C359">
@@ -5181,7 +5181,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C360">
@@ -5194,7 +5194,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>MANLIO FABIO ALTAMIRANO</t>
+          <t>Manlio Fabio Altamirano</t>
         </is>
       </c>
       <c r="C361">
@@ -5207,7 +5207,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C362">
@@ -5220,7 +5220,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C363">
@@ -5233,7 +5233,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C364">
@@ -5246,7 +5246,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C365">
@@ -5259,7 +5259,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C366">
@@ -5272,7 +5272,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C367">
@@ -5285,7 +5285,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C368">
@@ -5298,7 +5298,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C369">
@@ -5311,7 +5311,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C370">
@@ -5324,7 +5324,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C371">
@@ -5337,7 +5337,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C372">
@@ -5350,7 +5350,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>TAMIAHUA</t>
+          <t>Tamiahua</t>
         </is>
       </c>
       <c r="C373">
@@ -5363,7 +5363,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C374">
@@ -5376,7 +5376,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>TEXCATEPEC</t>
+          <t>Texcatepec</t>
         </is>
       </c>
       <c r="C375">
@@ -5389,7 +5389,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C376">
@@ -5402,7 +5402,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>TLACOTALPAN</t>
+          <t>Tlacotalpan</t>
         </is>
       </c>
       <c r="C377">
@@ -5415,7 +5415,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C378">
@@ -5428,7 +5428,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C379">
@@ -5441,7 +5441,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C380">
@@ -5454,7 +5454,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C381">
@@ -5467,7 +5467,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C382">
@@ -5480,7 +5480,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C383">
@@ -5493,12 +5493,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MOTUL</t>
+          <t>Motul</t>
         </is>
       </c>
       <c r="C384">
@@ -5511,7 +5511,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C385">
@@ -5524,7 +5524,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C386">
@@ -5537,12 +5537,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C387">
@@ -5555,7 +5555,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C388">
@@ -5568,7 +5568,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C389">
@@ -5581,7 +5581,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C390">
@@ -5594,7 +5594,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C391">
@@ -5607,7 +5607,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C392">
@@ -5620,7 +5620,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C393">
@@ -5628,41 +5628,6 @@
       </c>
       <c r="D393">
         <v>1</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MASSACHUSETTS_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MASSACHUSETTS_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mulegé</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>El Bosque</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1460,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1600,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Jilotzingo</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>León</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2156,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Marquelia</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2234,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2247,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2260,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2273,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -2286,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2299,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2312,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -2325,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -2338,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -2351,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2421,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -2434,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -2447,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2460,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -2473,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -2486,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -2499,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -2512,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2525,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2699,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -2712,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2725,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2738,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2751,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2764,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2777,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2790,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -2803,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2816,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2829,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Tuxcacuesco</t>
@@ -2842,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -2855,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2868,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2881,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2894,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2925,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2938,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2951,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -2964,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -2977,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2990,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -3003,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -3016,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3029,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3042,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -3055,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -3068,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3081,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3094,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -3107,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3120,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -3133,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3164,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3177,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3190,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -3203,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3234,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3265,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -3278,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3309,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -3322,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -3335,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -3361,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -3374,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -3387,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -3400,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3413,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -3426,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>San Antonio Huitepec</t>
@@ -3465,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -3478,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3491,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -3504,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -3517,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>San Martín Zacatepec</t>
@@ -3530,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Miguel Ejutla</t>
@@ -3543,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San Miguel Tulancingo</t>
@@ -3556,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -3569,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -3582,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -3595,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Santa Lucía Del Camino</t>
@@ -3608,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Santa María Apazco</t>
@@ -3621,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -3634,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -3647,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3660,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -3673,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -3686,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -3699,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -3712,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3725,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -3738,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -3751,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -3764,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3795,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -3808,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -3821,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -3834,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3847,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -3860,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -3873,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3886,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -3899,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Chiconcuautla</t>
@@ -3912,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -3925,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3938,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -3951,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -3964,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -3977,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3990,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -4003,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -4016,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4029,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -4042,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -4055,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4068,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -4081,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -4094,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4107,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -4120,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -4133,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -4146,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -4159,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -4172,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -4185,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -4198,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -4211,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -4224,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -4237,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -4250,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -4263,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -4276,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -4289,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -4302,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Zapotitlán</t>
@@ -4315,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4346,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -4359,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -4372,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -4385,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4416,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4447,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -4460,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -4473,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -4486,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -4499,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -4512,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Vanegas</t>
@@ -4525,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -4538,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -4551,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4582,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -4595,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -4608,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4639,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4652,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -4665,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -4678,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4709,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -4722,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -4735,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -4748,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4779,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -4792,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>González</t>
@@ -4805,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -4818,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -4831,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -4844,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4875,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4888,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>El Carmen Tequexquitla</t>
@@ -4901,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -4914,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Sanctórum De Lázaro Cárdenas</t>
@@ -4927,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -4940,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4953,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4984,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -4997,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -5010,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Camarón De Tejeda</t>
@@ -5023,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -5036,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Chumatlán</t>
@@ -5049,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -5062,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -5075,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -5088,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -5101,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -5114,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -5127,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -5140,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -5153,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -5166,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -5179,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -5192,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -5205,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -5218,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -5231,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -5244,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -5257,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -5270,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -5283,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -5296,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -5309,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -5322,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -5335,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -5348,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -5361,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -5374,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -5387,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -5400,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -5413,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -5426,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5439,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -5452,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -5465,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -5478,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5509,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -5522,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5553,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -5566,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -5579,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -5592,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -5605,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Total</t>
